--- a/inst/extdata/TaxaMaster_Bug_BCG_PacNW_v1.xlsx
+++ b/inst/extdata/TaxaMaster_Bug_BCG_PacNW_v1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\_HOME\BCGcalc_20180921\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F6383E2-6E97-41E1-8CA3-C812B7193BA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1348DB47-8643-4112-A56D-DCFBC3C23116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TaxaMaster" sheetId="1" r:id="rId1"/>
+    <sheet name="TaxaMaster_Ben_BCG_PacNW" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaxaMaster!$A$1:$S$685</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaxaMaster_Ben_BCG_PacNW!$A$1:$S$685</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>

--- a/inst/extdata/TaxaMaster_Bug_BCG_PacNW_v1.xlsx
+++ b/inst/extdata/TaxaMaster_Bug_BCG_PacNW_v1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1348DB47-8643-4112-A56D-DCFBC3C23116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F03FD8A1-4509-4DA5-9BCC-3CEA0BCF6685}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaxaMaster_Ben_BCG_PacNW" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaxaMaster_Ben_BCG_PacNW!$A$1:$S$685</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9158" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9161" uniqueCount="1084">
   <si>
     <t>TaxaID</t>
   </si>
@@ -3268,13 +3269,25 @@
   </si>
   <si>
     <t>luctosa</t>
+  </si>
+  <si>
+    <t>Update Turbellaria BCG Attribute from "x" to "4" to match synonym Trepaxonemata.</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3286,6 +3299,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3311,7 +3332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3319,11 +3340,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3335,8 +3366,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3620,9 +3655,9 @@
   </sheetPr>
   <dimension ref="A1:S685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="L471" sqref="L471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26221,8 +26256,8 @@
       <c r="D463" t="s">
         <v>762</v>
       </c>
-      <c r="L463" s="1" t="s">
-        <v>112</v>
+      <c r="L463" s="1">
+        <v>4</v>
       </c>
       <c r="M463" s="1" t="b">
         <v>0</v>
@@ -36600,4 +36635,46 @@
   <autoFilter ref="A1:S685" xr:uid="{765F7D4B-EECB-4021-BC1B-59A14BB6628A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE61B04-0404-452E-83F8-8A5411F8905E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>